--- a/data/Method_Validation.data.xlsx
+++ b/data/Method_Validation.data.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" activeTab="3"/>
+    <workbookView xWindow="1340" yWindow="460" windowWidth="25860" windowHeight="16420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MS HCG" sheetId="1" r:id="rId1"/>
     <sheet name="MS AFP" sheetId="2" r:id="rId2"/>
     <sheet name="MS uE3" sheetId="3" r:id="rId3"/>
     <sheet name="Precision" sheetId="4" r:id="rId4"/>
+    <sheet name="Linearity" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Precision!$A$1:$F$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Precision!$A$1:$G$60</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="478">
   <si>
     <t>Spec ID</t>
   </si>
@@ -1421,35 +1422,62 @@
     <t>P4</t>
   </si>
   <si>
-    <t>The Roche 5th generation troponin assay was recently approved by the FDA. This is simulated data that matches the performance of this assay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The "Blank" is a specimen with no troponin. The others are reference specimens have varying levels of troponin. </t>
-  </si>
-  <si>
-    <t>Each specimen was assayed repeatedly over the course of several days, to estimate the assay intermediate precision, or assay inter-day precision.</t>
-  </si>
-  <si>
-    <t>FDA documents:</t>
-  </si>
-  <si>
-    <t>http://www.accessdata.fda.gov/scripts/cdrh/cfdocs/cfPMN/pmn.cfm?ID=K162895</t>
-  </si>
-  <si>
-    <t>1) Calculate the imprecision at each test level</t>
-  </si>
-  <si>
-    <t>2) What is the limit of the blank? (Although in class we said 2SDs, this is generally defined as the 95th percentile of test results for a blank sample)</t>
-  </si>
-  <si>
-    <t>3) What is the apparent lower limit of quantification (CV ~ 20%)?</t>
+    <t>Result_2</t>
+  </si>
+  <si>
+    <t>Result_1</t>
+  </si>
+  <si>
+    <t>Result_3</t>
+  </si>
+  <si>
+    <t>Assigned_Value</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>AFP</t>
+  </si>
+  <si>
+    <t>S0</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>90% S6</t>
+  </si>
+  <si>
+    <t>hCG</t>
+  </si>
+  <si>
+    <t>Analyte</t>
+  </si>
+  <si>
+    <t>uE3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,6 +1508,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1503,17 +1539,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -6883,1271 +6921,1248 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="3"/>
-    <col min="8" max="8" width="14.83203125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="3"/>
+    <col min="1" max="1" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="4"/>
+    <col min="9" max="9" width="14.83203125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2" s="4">
+        <v>7.97</v>
+      </c>
+      <c r="E2" s="4">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.65</v>
+      </c>
+      <c r="E3" s="4">
+        <v>26.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="E4" s="4">
+        <v>25.19</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="E5" s="4">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8.52</v>
+      </c>
+      <c r="E6" s="4">
+        <v>26.04</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.23</v>
+      </c>
+      <c r="E7" s="4">
+        <v>25.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8.61</v>
+      </c>
+      <c r="E8" s="4">
+        <v>25.82</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7.93</v>
+      </c>
+      <c r="E9" s="4">
+        <v>25.57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8.31</v>
+      </c>
+      <c r="E10" s="4">
+        <v>27.25</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E11" s="4">
+        <v>26.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D12" s="4">
+        <v>7.18</v>
+      </c>
+      <c r="E12" s="4">
+        <v>24.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D13" s="4">
+        <v>7.48</v>
+      </c>
+      <c r="E13" s="4">
+        <v>23.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D14" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="E14" s="4">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8.86</v>
+      </c>
+      <c r="E15" s="4">
+        <v>25.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D16" s="4">
+        <v>7.24</v>
+      </c>
+      <c r="E16" s="4">
+        <v>23.84</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D17" s="4">
+        <v>7.79</v>
+      </c>
+      <c r="E17" s="4">
+        <v>24.56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D18" s="4">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="E18" s="4">
+        <v>24.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D19" s="4">
+        <v>7.74</v>
+      </c>
+      <c r="E19" s="4">
+        <v>24.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4">
+        <v>26.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D21" s="4">
+        <v>7.48</v>
+      </c>
+      <c r="E21" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D22" s="4">
+        <v>7.92</v>
+      </c>
+      <c r="E22" s="4">
+        <v>25.34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D23" s="4">
+        <v>7.58</v>
+      </c>
+      <c r="E23" s="4">
+        <v>25.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D24" s="4">
+        <v>7.61</v>
+      </c>
+      <c r="E24" s="4">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D25" s="4">
+        <v>8.34</v>
+      </c>
+      <c r="E25" s="4">
+        <v>25.57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7.76</v>
+      </c>
+      <c r="E26" s="4">
+        <v>25.72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D27" s="4">
+        <v>7.61</v>
+      </c>
+      <c r="E27" s="4">
+        <v>27.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D28" s="4">
+        <v>8.26</v>
+      </c>
+      <c r="E28" s="4">
+        <v>27.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D29" s="4">
+        <v>8.49</v>
+      </c>
+      <c r="E29" s="4">
+        <v>26.83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D30" s="4">
+        <v>8.09</v>
+      </c>
+      <c r="E30" s="4">
+        <v>27.78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D31" s="4">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="E31" s="4">
+        <v>26.93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>32</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="F32" s="4">
+        <v>5.6820000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="F33" s="4">
+        <v>5.6959999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>34</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="F34" s="4">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="F35" s="4">
+        <v>6.0730000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>36</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.435</v>
+      </c>
+      <c r="F36" s="4">
+        <v>5.5339999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>37</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="F37" s="4">
+        <v>5.5149999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>38</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="F38" s="4">
+        <v>5.8449999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>39</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="F39" s="4">
+        <v>5.6070000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>40</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="F40" s="4">
+        <v>5.5449999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>41</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="F41" s="4">
+        <v>5.681</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>42</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="F42" s="4">
+        <v>5.4409999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>43</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="F43" s="4">
+        <v>5.4690000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>44</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.436</v>
+      </c>
+      <c r="F44" s="4">
+        <v>5.3209999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>45</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F45" s="4">
+        <v>5.867</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>46</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.434</v>
+      </c>
+      <c r="F46" s="4">
+        <v>5.5750000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>47</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.435</v>
+      </c>
+      <c r="F47" s="4">
+        <v>5.2460000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>48</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="F48" s="4">
+        <v>5.3109999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>49</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.438</v>
+      </c>
+      <c r="F49" s="4">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>50</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="F50" s="4">
+        <v>5.3330000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>51</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.437</v>
+      </c>
+      <c r="F51" s="4">
+        <v>5.6349999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>52</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="F52" s="4">
+        <v>5.5960000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>53</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="F53" s="4">
+        <v>5.6340000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>54</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="F54" s="4">
+        <v>5.5960000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>55</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F55" s="4">
+        <v>5.6340000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>56</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="F56" s="4">
+        <v>5.9039999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>57</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="F57" s="4">
+        <v>5.5570000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>58</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="F58" s="4">
+        <v>5.4630000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>59</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="F59" s="4">
+        <v>5.3869999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>60</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.435</v>
+      </c>
+      <c r="F60" s="4">
+        <v>5.3860000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>61</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="F61" s="4">
+        <v>5.5810000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G60"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C2" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="D2" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="E2" s="3">
-        <v>22.5</v>
+      <c r="E1" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.03</v>
       </c>
       <c r="F2" s="3">
-        <v>105</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.71</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3.09</v>
+      </c>
+      <c r="F3" s="3">
         <v>2.5</v>
       </c>
-      <c r="C3" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>22.5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>96.3</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3">
-        <v>19</v>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.91</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.08</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.98</v>
       </c>
       <c r="F4" s="3">
-        <v>98.6</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="E5" s="3">
-        <v>18.399999999999999</v>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C5" s="2">
+        <v>30.29</v>
+      </c>
+      <c r="D5" s="2">
+        <v>29.54</v>
+      </c>
+      <c r="E5" s="2">
+        <v>31.71</v>
       </c>
       <c r="F5" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" s="2">
+        <v>122.97</v>
+      </c>
+      <c r="D6" s="2">
+        <v>117.89</v>
+      </c>
+      <c r="E6" s="2">
+        <v>116.8</v>
+      </c>
+      <c r="F6" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="F6" s="3">
-        <v>107.2</v>
-      </c>
-      <c r="H6" s="5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="2">
+        <v>569.23</v>
+      </c>
+      <c r="D7" s="2">
+        <v>575.66</v>
+      </c>
+      <c r="E7" s="2">
+        <v>573.08000000000004</v>
+      </c>
+      <c r="F7" s="3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2913.8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2970.2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2756.2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.74</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5.88</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5.85</v>
+      </c>
+      <c r="F10" s="2">
         <v>5.7</v>
       </c>
-      <c r="E7" s="3">
-        <v>20.5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>101.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20.5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>93.8</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C9" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="F9" s="3">
-        <v>102.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E10" s="3">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="F10" s="3">
-        <v>101.2</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="E11" s="3">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="F11" s="3">
-        <v>95.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="E12" s="3">
-        <v>21.6</v>
-      </c>
-      <c r="F12" s="3">
-        <v>105.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D13" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="E13" s="3">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="F13" s="3">
-        <v>106.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="C14" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="D14" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E14" s="3">
-        <v>21</v>
-      </c>
-      <c r="F14" s="3">
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="E15" s="3">
-        <v>23.6</v>
-      </c>
-      <c r="F15" s="3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="C16" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="D16" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="E16" s="3">
-        <v>20.3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>98.1</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C17" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="E17" s="3">
-        <v>20.5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="C18" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>18.3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>100.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="E19" s="3">
-        <v>19.5</v>
-      </c>
-      <c r="F19" s="3">
-        <v>92.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>18.7</v>
-      </c>
-      <c r="F20" s="3">
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>5.9</v>
-      </c>
-      <c r="E21" s="3">
-        <v>20.5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>97.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="C22" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="D22" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>21.4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>102.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C23" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="D23" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>21.3</v>
-      </c>
-      <c r="F23" s="3">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="D24" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>22.7</v>
-      </c>
-      <c r="F24" s="3">
-        <v>102.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="C25" s="3">
-        <v>4</v>
-      </c>
-      <c r="D25" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="E25" s="3">
-        <v>18.7</v>
-      </c>
-      <c r="F25" s="3">
-        <v>95.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C26" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="D26" s="3">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3">
-        <v>21.4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>102.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C27" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="D27" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>18.8</v>
-      </c>
-      <c r="F27" s="3">
-        <v>107.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="C28" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="D28" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="E28" s="3">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="F28" s="3">
-        <v>94.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="C29" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="D29" s="3">
-        <v>7</v>
-      </c>
-      <c r="E29" s="3">
-        <v>21.3</v>
-      </c>
-      <c r="F29" s="3">
-        <v>100.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C30" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="D30" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="E30" s="3">
-        <v>20.5</v>
-      </c>
-      <c r="F30" s="3">
-        <v>105.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D31" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="E31" s="3">
-        <v>18.8</v>
-      </c>
-      <c r="F31" s="3">
-        <v>103.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="C32" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="D32" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="E32" s="3">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="F32" s="3">
-        <v>93.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C33" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D33" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="E33" s="3">
-        <v>22</v>
-      </c>
-      <c r="F33" s="3">
-        <v>101.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="C34" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="D34" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="E34" s="3">
-        <v>23.3</v>
-      </c>
-      <c r="F34" s="3">
-        <v>93.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C11" s="2">
+        <v>32.07</v>
+      </c>
+      <c r="D11" s="2">
+        <v>32.64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>34.15</v>
+      </c>
+      <c r="F11" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="C35" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="D35" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>21.1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>96.9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="D36" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="E36" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="F36" s="3">
-        <v>98.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="C37" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="D37" s="3">
-        <v>8</v>
-      </c>
-      <c r="E37" s="3">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="F37" s="3">
-        <v>105.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C38" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="D38" s="3">
-        <v>9</v>
-      </c>
-      <c r="E38" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="F38" s="3">
-        <v>102.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="C39" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D39" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="E39" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="F39" s="3">
-        <v>101.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="C40" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="D40" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="E40" s="3">
-        <v>20.8</v>
-      </c>
-      <c r="F40" s="3">
-        <v>100.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3">
-        <v>2</v>
-      </c>
-      <c r="C41" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="D41" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="E41" s="3">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="F41" s="3">
-        <v>109.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="C42" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D42" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="E42" s="3">
-        <v>20.9</v>
-      </c>
-      <c r="F42" s="3">
-        <v>99.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C43" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="D43" s="3">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="F43" s="3">
-        <v>99.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="C44" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="D44" s="3">
-        <v>7</v>
-      </c>
-      <c r="E44" s="3">
-        <v>19</v>
-      </c>
-      <c r="F44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="C45" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D45" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="E45" s="3">
-        <v>20.7</v>
-      </c>
-      <c r="F45" s="3">
-        <v>102.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3">
-        <v>-0.2</v>
-      </c>
-      <c r="C46" s="3">
-        <v>6</v>
-      </c>
-      <c r="D46" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="E46" s="3">
-        <v>22</v>
-      </c>
-      <c r="F46" s="3">
-        <v>97.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3">
-        <v>0</v>
-      </c>
-      <c r="C47" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="D47" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E47" s="3">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F47" s="3">
-        <v>94.7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="C48" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="D48" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="E48" s="3">
-        <v>20.2</v>
-      </c>
-      <c r="F48" s="3">
-        <v>99.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="C49" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="D49" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E49" s="3">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="F49" s="3">
-        <v>98.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C50" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="D50" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="E50" s="3">
-        <v>19</v>
-      </c>
-      <c r="F50" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>50</v>
-      </c>
-      <c r="B51" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="C51" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="D51" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="E51" s="3">
-        <v>19</v>
-      </c>
-      <c r="F51" s="3">
-        <v>103.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="C52" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D52" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="E52" s="3">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="F52" s="3">
-        <v>97.8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>52</v>
-      </c>
-      <c r="B53" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="C53" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="D53" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="E53" s="3">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="F53" s="3">
-        <v>101.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
-        <v>53</v>
-      </c>
-      <c r="B54" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="C54" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="D54" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="E54" s="3">
-        <v>21.8</v>
-      </c>
-      <c r="F54" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="C55" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D55" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="E55" s="3">
-        <v>20.8</v>
-      </c>
-      <c r="F55" s="3">
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3">
-        <v>2</v>
-      </c>
-      <c r="C56" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="D56" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="E56" s="3">
-        <v>22.6</v>
-      </c>
-      <c r="F56" s="3">
-        <v>103.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
-        <v>56</v>
-      </c>
-      <c r="B57" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="C57" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="D57" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="E57" s="3">
-        <v>20.7</v>
-      </c>
-      <c r="F57" s="3">
-        <v>98.1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3">
-        <v>-0.4</v>
-      </c>
-      <c r="C58" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D58" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100.8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="C59" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="D59" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="E59" s="3">
-        <v>20.2</v>
-      </c>
-      <c r="F59" s="3">
-        <v>105.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>59</v>
-      </c>
-      <c r="B60" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="C60" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="D60" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="E60" s="3">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F60" s="3">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="C61" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="D61" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="E61" s="3">
-        <v>21.3</v>
-      </c>
-      <c r="F61" s="3">
-        <v>92.3</v>
-      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C12" s="2">
+        <v>194.46</v>
+      </c>
+      <c r="D12" s="2">
+        <v>195.69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>197.41</v>
+      </c>
+      <c r="F12" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B13" t="s">
+        <v>475</v>
+      </c>
+      <c r="C13" s="2">
+        <v>559.52</v>
+      </c>
+      <c r="D13" s="2">
+        <v>592.29</v>
+      </c>
+      <c r="E13" s="2">
+        <v>587.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B14" t="s">
+        <v>475</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1293.3499999999999</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1288.96</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1311.35</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F61"/>
-  <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Method_Validation.data.xlsx
+++ b/data/Method_Validation.data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hermanda/mnt/crunchy/hermanda/teaching_container/repos/AACC-Introduction-to-R/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nkrumm/projects/R-course/AACC-Introduction-to-R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="460" windowWidth="25860" windowHeight="16420" activeTab="4"/>
+    <workbookView xWindow="8980" yWindow="460" windowWidth="25860" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="MS HCG" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="478">
   <si>
-    <t>Spec ID</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -1468,6 +1459,15 @@
   </si>
   <si>
     <t>uE3</t>
+  </si>
+  <si>
+    <t>method_a</t>
+  </si>
+  <si>
+    <t>method_b</t>
+  </si>
+  <si>
+    <t>specimen</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1475,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1545,7 +1545,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1857,7 +1857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1866,18 +1868,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>475</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>27818</v>
@@ -1888,7 +1890,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>6918</v>
@@ -1899,7 +1901,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>9055</v>
@@ -1910,7 +1912,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>23375</v>
@@ -1921,7 +1923,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>27169</v>
@@ -1932,7 +1934,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>59253</v>
@@ -1943,7 +1945,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>18425</v>
@@ -1954,7 +1956,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>5410</v>
@@ -1965,7 +1967,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>9761</v>
@@ -1976,7 +1978,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>28202</v>
@@ -1987,7 +1989,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>6783</v>
@@ -1998,7 +2000,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>22811</v>
@@ -2009,7 +2011,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>31221</v>
@@ -2020,7 +2022,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>16261</v>
@@ -2031,7 +2033,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>9139</v>
@@ -2042,7 +2044,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>14069</v>
@@ -2053,7 +2055,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>28080</v>
@@ -2064,7 +2066,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>7880</v>
@@ -2075,7 +2077,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>19132</v>
@@ -2086,7 +2088,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>21679</v>
@@ -2097,7 +2099,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>6585</v>
@@ -2108,7 +2110,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>35585</v>
@@ -2119,7 +2121,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>13190</v>
@@ -2130,7 +2132,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>36338</v>
@@ -2141,7 +2143,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>10138</v>
@@ -2152,7 +2154,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>7411</v>
@@ -2163,7 +2165,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>1569</v>
@@ -2174,7 +2176,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>63043</v>
@@ -2185,7 +2187,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>24654</v>
@@ -2196,7 +2198,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>18055</v>
@@ -2207,7 +2209,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>56913</v>
@@ -2218,7 +2220,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>5360</v>
@@ -2229,7 +2231,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>17777</v>
@@ -2240,7 +2242,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>12356</v>
@@ -2251,7 +2253,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>23053</v>
@@ -2262,7 +2264,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>6918</v>
@@ -2273,7 +2275,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>27818</v>
@@ -2284,7 +2286,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>12356</v>
@@ -2295,7 +2297,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>17777</v>
@@ -2306,7 +2308,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>23053</v>
@@ -2317,7 +2319,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>9055</v>
@@ -2328,7 +2330,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>27169</v>
@@ -2339,7 +2341,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>23375</v>
@@ -2350,7 +2352,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>18425</v>
@@ -2361,7 +2363,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>20988</v>
@@ -2372,7 +2374,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>50539</v>
@@ -2383,7 +2385,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>4384</v>
@@ -2394,7 +2396,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>37564</v>
@@ -2405,7 +2407,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>13157</v>
@@ -2416,7 +2418,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>33312</v>
@@ -2427,7 +2429,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>14808</v>
@@ -2438,7 +2440,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>29627</v>
@@ -2449,7 +2451,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>23464</v>
@@ -2460,7 +2462,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>7846</v>
@@ -2471,7 +2473,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>14735</v>
@@ -2482,7 +2484,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>22714</v>
@@ -2493,7 +2495,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>46713</v>
@@ -2504,7 +2506,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>24035</v>
@@ -2515,7 +2517,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>28509</v>
@@ -2526,7 +2528,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>9438</v>
@@ -2537,7 +2539,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>11748</v>
@@ -2548,7 +2550,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>17831</v>
@@ -2559,7 +2561,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>33240</v>
@@ -2570,7 +2572,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>64888</v>
@@ -2581,7 +2583,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>24187</v>
@@ -2592,7 +2594,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>5274</v>
@@ -2603,7 +2605,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>2834</v>
@@ -2614,7 +2616,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>6990</v>
@@ -2625,7 +2627,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>12521</v>
@@ -2636,7 +2638,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>10335</v>
@@ -2647,7 +2649,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>10061</v>
@@ -2658,7 +2660,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>6987</v>
@@ -2669,7 +2671,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>21093</v>
@@ -2680,7 +2682,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>52433</v>
@@ -2691,7 +2693,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>14229</v>
@@ -2702,7 +2704,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>27755</v>
@@ -2713,7 +2715,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>19228</v>
@@ -2724,7 +2726,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>11911</v>
@@ -2735,7 +2737,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>20133</v>
@@ -2746,7 +2748,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>35481</v>
@@ -2757,7 +2759,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>28252</v>
@@ -2768,7 +2770,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>65631</v>
@@ -2779,7 +2781,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>12771</v>
@@ -2790,7 +2792,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>25248</v>
@@ -2801,7 +2803,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>35994</v>
@@ -2812,7 +2814,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>57438</v>
@@ -2823,7 +2825,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>38831</v>
@@ -2834,7 +2836,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>13163</v>
@@ -2845,7 +2847,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>18470</v>
@@ -2856,7 +2858,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>28231</v>
@@ -2867,7 +2869,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>14810</v>
@@ -2878,7 +2880,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>20457</v>
@@ -2889,7 +2891,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>26303</v>
@@ -2900,7 +2902,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>25782</v>
@@ -2911,7 +2913,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>27157</v>
@@ -2922,7 +2924,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>28040</v>
@@ -2933,7 +2935,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>16144</v>
@@ -2944,7 +2946,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>16462</v>
@@ -2955,7 +2957,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>25584</v>
@@ -2966,7 +2968,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>9727</v>
@@ -2977,7 +2979,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>36921</v>
@@ -2988,7 +2990,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>4333</v>
@@ -2999,7 +3001,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>65487</v>
@@ -3010,7 +3012,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>16643</v>
@@ -3021,7 +3023,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>20949</v>
@@ -3032,7 +3034,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>19472</v>
@@ -3043,7 +3045,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>52193</v>
@@ -3054,7 +3056,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>17737</v>
@@ -3065,7 +3067,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>28953</v>
@@ -3076,7 +3078,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>21618</v>
@@ -3087,7 +3089,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>11835</v>
@@ -3098,7 +3100,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>36840</v>
@@ -3109,7 +3111,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>14499</v>
@@ -3120,7 +3122,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>13056</v>
@@ -3131,7 +3133,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>9818</v>
@@ -3142,7 +3144,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>18486</v>
@@ -3153,7 +3155,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>84566</v>
@@ -3164,7 +3166,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>60978</v>
@@ -3175,7 +3177,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>27005</v>
@@ -3186,7 +3188,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>14095</v>
@@ -3197,7 +3199,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>5740</v>
@@ -3208,7 +3210,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>11514</v>
@@ -3219,7 +3221,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>19390</v>
@@ -3230,7 +3232,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>22125</v>
@@ -3241,7 +3243,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>21586</v>
@@ -3252,7 +3254,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>23011</v>
@@ -3263,7 +3265,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>16019</v>
@@ -3274,7 +3276,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>14799</v>
@@ -3285,7 +3287,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>6040</v>
@@ -3296,7 +3298,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>22461</v>
@@ -3307,7 +3309,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>21762</v>
@@ -3318,7 +3320,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>20012</v>
@@ -3329,7 +3331,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>24610</v>
@@ -3340,7 +3342,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>13460</v>
@@ -3351,7 +3353,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>10684</v>
@@ -3362,7 +3364,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>28020</v>
@@ -3373,7 +3375,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>27159</v>
@@ -3384,7 +3386,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>22438</v>
@@ -3395,7 +3397,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>35321</v>
@@ -3406,7 +3408,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>8968</v>
@@ -3417,7 +3419,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>14804</v>
@@ -3428,7 +3430,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>11701</v>
@@ -3439,7 +3441,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>17541</v>
@@ -3450,7 +3452,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>50671</v>
@@ -3461,7 +3463,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>34100</v>
@@ -3472,7 +3474,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>15549</v>
@@ -3491,7 +3493,7 @@
   <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A162"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3501,18 +3503,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>475</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2">
         <v>42.8</v>
@@ -3523,7 +3525,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B3">
         <v>42.3</v>
@@ -3534,7 +3536,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B4">
         <v>42.3</v>
@@ -3545,7 +3547,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B5">
         <v>20.6</v>
@@ -3556,7 +3558,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B6">
         <v>20.6</v>
@@ -3567,7 +3569,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B7">
         <v>67.099999999999994</v>
@@ -3578,7 +3580,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B8">
         <v>67.099999999999994</v>
@@ -3589,7 +3591,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B9">
         <v>41</v>
@@ -3600,7 +3602,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B10">
         <v>32</v>
@@ -3611,7 +3613,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B11">
         <v>23</v>
@@ -3622,7 +3624,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -3633,7 +3635,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B13">
         <v>45.7</v>
@@ -3644,7 +3646,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B14">
         <v>26</v>
@@ -3655,7 +3657,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B15">
         <v>70</v>
@@ -3666,7 +3668,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B16">
         <v>36</v>
@@ -3677,7 +3679,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B17">
         <v>10.1</v>
@@ -3688,7 +3690,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B18">
         <v>10.1</v>
@@ -3699,7 +3701,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B19">
         <v>27.5</v>
@@ -3710,7 +3712,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B20">
         <v>27.5</v>
@@ -3721,7 +3723,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B21">
         <v>4.76</v>
@@ -3732,7 +3734,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B22">
         <v>62</v>
@@ -3743,7 +3745,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B23">
         <v>56</v>
@@ -3754,7 +3756,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B24">
         <v>36.299999999999997</v>
@@ -3765,7 +3767,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B25">
         <v>36.299999999999997</v>
@@ -3776,7 +3778,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B26">
         <v>49.8</v>
@@ -3787,7 +3789,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B27">
         <v>75.900000000000006</v>
@@ -3798,7 +3800,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B28">
         <v>39.1</v>
@@ -3809,7 +3811,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B29">
         <v>47.1</v>
@@ -3820,7 +3822,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B30">
         <v>27.7</v>
@@ -3831,7 +3833,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B31">
         <v>22.9</v>
@@ -3842,7 +3844,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B32">
         <v>46.2</v>
@@ -3853,7 +3855,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B33">
         <v>75.8</v>
@@ -3864,7 +3866,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B34">
         <v>58.1</v>
@@ -3875,7 +3877,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B35">
         <v>17</v>
@@ -3886,7 +3888,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B36">
         <v>62.4</v>
@@ -3897,7 +3899,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B37">
         <v>45.6</v>
@@ -3908,7 +3910,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B38">
         <v>45.3</v>
@@ -3919,7 +3921,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B39">
         <v>36.5</v>
@@ -3930,7 +3932,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B40">
         <v>64.599999999999994</v>
@@ -3941,7 +3943,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B41">
         <v>36.299999999999997</v>
@@ -3952,7 +3954,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B42">
         <v>73.900000000000006</v>
@@ -3963,7 +3965,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B43">
         <v>36.700000000000003</v>
@@ -3974,7 +3976,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B44">
         <v>51.8</v>
@@ -3985,7 +3987,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B45">
         <v>46</v>
@@ -3996,7 +3998,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B46">
         <v>19.2</v>
@@ -4007,7 +4009,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B47">
         <v>50.7</v>
@@ -4018,7 +4020,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B48">
         <v>31.5</v>
@@ -4029,7 +4031,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B49">
         <v>57.7</v>
@@ -4040,7 +4042,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B50">
         <v>63.5</v>
@@ -4051,7 +4053,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B51">
         <v>44</v>
@@ -4062,7 +4064,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B52">
         <v>113</v>
@@ -4073,7 +4075,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B53">
         <v>36.700000000000003</v>
@@ -4084,7 +4086,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B54">
         <v>42.1</v>
@@ -4095,7 +4097,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B55">
         <v>39.4</v>
@@ -4106,7 +4108,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B56">
         <v>82.1</v>
@@ -4117,7 +4119,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B57">
         <v>97.9</v>
@@ -4128,7 +4130,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B58">
         <v>43.6</v>
@@ -4139,7 +4141,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B59">
         <v>25.1</v>
@@ -4150,7 +4152,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B60">
         <v>61.8</v>
@@ -4161,7 +4163,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B61">
         <v>113</v>
@@ -4172,7 +4174,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B62">
         <v>24.6</v>
@@ -4183,7 +4185,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B63">
         <v>21.4</v>
@@ -4194,7 +4196,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B64">
         <v>51.2</v>
@@ -4205,7 +4207,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B65">
         <v>43.6</v>
@@ -4216,7 +4218,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B66">
         <v>16</v>
@@ -4227,7 +4229,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B67">
         <v>40.700000000000003</v>
@@ -4238,7 +4240,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B68">
         <v>49.5</v>
@@ -4249,7 +4251,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B69">
         <v>25.9</v>
@@ -4260,7 +4262,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B70">
         <v>33.4</v>
@@ -4271,7 +4273,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B71">
         <v>31.5</v>
@@ -4282,7 +4284,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B72">
         <v>31.7</v>
@@ -4293,7 +4295,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B73">
         <v>44.5</v>
@@ -4304,7 +4306,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B74">
         <v>32.5</v>
@@ -4315,7 +4317,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B75">
         <v>23.5</v>
@@ -4326,7 +4328,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B76">
         <v>45.5</v>
@@ -4337,7 +4339,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B77">
         <v>20.3</v>
@@ -4348,7 +4350,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B78">
         <v>36.5</v>
@@ -4359,7 +4361,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B79">
         <v>21.1</v>
@@ -4370,7 +4372,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B80">
         <v>65.900000000000006</v>
@@ -4381,7 +4383,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B81">
         <v>51.2</v>
@@ -4392,7 +4394,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B82">
         <v>37.9</v>
@@ -4403,7 +4405,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B83">
         <v>35.5</v>
@@ -4414,7 +4416,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B84">
         <v>41.6</v>
@@ -4425,7 +4427,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B85">
         <v>41.7</v>
@@ -4436,7 +4438,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B86">
         <v>24.3</v>
@@ -4447,7 +4449,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B87">
         <v>29.3</v>
@@ -4458,7 +4460,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B88">
         <v>30.5</v>
@@ -4469,7 +4471,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B89">
         <v>52.6</v>
@@ -4480,7 +4482,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B90">
         <v>37.9</v>
@@ -4491,7 +4493,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B91">
         <v>56</v>
@@ -4502,7 +4504,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B92">
         <v>81.599999999999994</v>
@@ -4513,7 +4515,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B93">
         <v>17.600000000000001</v>
@@ -4524,7 +4526,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B94">
         <v>50.1</v>
@@ -4535,7 +4537,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B95">
         <v>20.8</v>
@@ -4546,7 +4548,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B96">
         <v>37</v>
@@ -4557,7 +4559,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B97">
         <v>33.200000000000003</v>
@@ -4568,7 +4570,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B98">
         <v>25.4</v>
@@ -4579,7 +4581,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B99">
         <v>72.7</v>
@@ -4590,7 +4592,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B100">
         <v>59.9</v>
@@ -4601,7 +4603,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B101">
         <v>36.200000000000003</v>
@@ -4612,7 +4614,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B102">
         <v>32.200000000000003</v>
@@ -4623,7 +4625,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B103">
         <v>23.1</v>
@@ -4634,7 +4636,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B104">
         <v>36.299999999999997</v>
@@ -4645,7 +4647,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B105">
         <v>37.6</v>
@@ -4656,7 +4658,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B106">
         <v>26</v>
@@ -4667,7 +4669,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B107">
         <v>31.2</v>
@@ -4678,7 +4680,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B108">
         <v>26.8</v>
@@ -4689,7 +4691,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B109">
         <v>28.4</v>
@@ -4700,7 +4702,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B110">
         <v>22.8</v>
@@ -4711,7 +4713,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B111">
         <v>40.4</v>
@@ -4722,7 +4724,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B112">
         <v>27.1</v>
@@ -4733,7 +4735,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B113">
         <v>23</v>
@@ -4744,7 +4746,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B114">
         <v>26.3</v>
@@ -4755,7 +4757,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B115">
         <v>22.7</v>
@@ -4766,7 +4768,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B116">
         <v>83.8</v>
@@ -4777,7 +4779,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B117">
         <v>67.400000000000006</v>
@@ -4788,7 +4790,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B118">
         <v>27.7</v>
@@ -4799,7 +4801,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B119">
         <v>23.5</v>
@@ -4810,7 +4812,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B120">
         <v>44.4</v>
@@ -4821,7 +4823,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B121">
         <v>57.2</v>
@@ -4832,7 +4834,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B122">
         <v>42.1</v>
@@ -4843,7 +4845,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B123">
         <v>26</v>
@@ -4854,7 +4856,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B124">
         <v>36.9</v>
@@ -4865,7 +4867,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B125">
         <v>29</v>
@@ -4876,7 +4878,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B126">
         <v>42.1</v>
@@ -4887,7 +4889,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B127">
         <v>30.6</v>
@@ -4898,7 +4900,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B128">
         <v>29.6</v>
@@ -4909,7 +4911,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B129">
         <v>34.700000000000003</v>
@@ -4920,7 +4922,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B130">
         <v>35.9</v>
@@ -4931,7 +4933,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B131">
         <v>316</v>
@@ -4942,7 +4944,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B132">
         <v>57.3</v>
@@ -4953,7 +4955,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B133">
         <v>126</v>
@@ -4964,7 +4966,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B134">
         <v>24.4</v>
@@ -4975,7 +4977,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B135">
         <v>45.9</v>
@@ -4986,7 +4988,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B136">
         <v>37.9</v>
@@ -4997,7 +4999,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B137">
         <v>71.900000000000006</v>
@@ -5008,7 +5010,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B138">
         <v>39.700000000000003</v>
@@ -5019,7 +5021,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B139">
         <v>22.6</v>
@@ -5030,7 +5032,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B140">
         <v>35</v>
@@ -5041,7 +5043,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B141">
         <v>25.9</v>
@@ -5052,7 +5054,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B142">
         <v>19.899999999999999</v>
@@ -5063,7 +5065,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B143">
         <v>19.7</v>
@@ -5074,7 +5076,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B144">
         <v>33</v>
@@ -5085,7 +5087,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B145">
         <v>127</v>
@@ -5096,7 +5098,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B146">
         <v>64</v>
@@ -5107,7 +5109,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B147">
         <v>40</v>
@@ -5118,7 +5120,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B148">
         <v>19</v>
@@ -5129,7 +5131,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B149">
         <v>47</v>
@@ -5140,7 +5142,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B150">
         <v>35</v>
@@ -5151,7 +5153,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B151">
         <v>117</v>
@@ -5162,7 +5164,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B152">
         <v>79</v>
@@ -5173,7 +5175,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B153">
         <v>27</v>
@@ -5184,7 +5186,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B154">
         <v>46</v>
@@ -5195,7 +5197,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B155">
         <v>38.1</v>
@@ -5206,7 +5208,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B156">
         <v>38.1</v>
@@ -5217,7 +5219,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B157">
         <v>31.4</v>
@@ -5228,7 +5230,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B158">
         <v>31.4</v>
@@ -5239,7 +5241,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B159">
         <v>53.6</v>
@@ -5250,7 +5252,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B160">
         <v>53.6</v>
@@ -5261,7 +5263,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B161">
         <v>14</v>
@@ -5272,7 +5274,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B162">
         <v>77</v>
@@ -5290,7 +5292,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5299,18 +5303,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>475</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B2">
         <v>1.52</v>
@@ -5321,7 +5325,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B3">
         <v>0.80900000000000005</v>
@@ -5332,7 +5336,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B4">
         <v>1.1100000000000001</v>
@@ -5343,7 +5347,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B5">
         <v>0.44</v>
@@ -5354,7 +5358,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B6">
         <v>0.35</v>
@@ -5365,7 +5369,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B7">
         <v>0.06</v>
@@ -5376,7 +5380,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B8">
         <v>1.47</v>
@@ -5387,7 +5391,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B9">
         <v>1.95</v>
@@ -5398,7 +5402,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B10">
         <v>1.43</v>
@@ -5409,7 +5413,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B11">
         <v>0.65</v>
@@ -5420,7 +5424,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B12">
         <v>0.93</v>
@@ -5431,7 +5435,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B13">
         <v>0.28000000000000003</v>
@@ -5442,7 +5446,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B14">
         <v>0.29799999999999999</v>
@@ -5453,7 +5457,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B15">
         <v>0.86899999999999999</v>
@@ -5464,7 +5468,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B16">
         <v>1.27</v>
@@ -5475,7 +5479,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B17">
         <v>0.83099999999999996</v>
@@ -5486,7 +5490,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B18">
         <v>0.65100000000000002</v>
@@ -5497,7 +5501,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B19">
         <v>1.86</v>
@@ -5508,7 +5512,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B20">
         <v>0.41799999999999998</v>
@@ -5519,7 +5523,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B21">
         <v>0.85199999999999998</v>
@@ -5530,7 +5534,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B22">
         <v>1.49</v>
@@ -5541,7 +5545,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B23">
         <v>0.71199999999999997</v>
@@ -5552,7 +5556,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B24">
         <v>0.78100000000000003</v>
@@ -5563,7 +5567,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B25">
         <v>0.83299999999999996</v>
@@ -5574,7 +5578,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B26">
         <v>4.42</v>
@@ -5585,7 +5589,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B27">
         <v>1.54</v>
@@ -5596,7 +5600,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B28">
         <v>2.11</v>
@@ -5607,7 +5611,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B29">
         <v>0.25</v>
@@ -5618,7 +5622,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B30">
         <v>0.41</v>
@@ -5629,7 +5633,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B31">
         <v>2.16</v>
@@ -5640,7 +5644,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B32">
         <v>0.5</v>
@@ -5651,7 +5655,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B33">
         <v>2.74</v>
@@ -5662,7 +5666,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B34">
         <v>0.68200000000000005</v>
@@ -5673,7 +5677,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B35">
         <v>0.69099999999999995</v>
@@ -5684,7 +5688,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B36">
         <v>1.48</v>
@@ -5695,7 +5699,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B37">
         <v>0.80900000000000005</v>
@@ -5706,7 +5710,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B38">
         <v>1.52</v>
@@ -5717,7 +5721,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B39">
         <v>0.69099999999999995</v>
@@ -5728,7 +5732,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B40">
         <v>0.68200000000000005</v>
@@ -5739,7 +5743,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B41">
         <v>1.48</v>
@@ -5750,7 +5754,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B42">
         <v>1.1100000000000001</v>
@@ -5761,7 +5765,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B43">
         <v>0.35</v>
@@ -5772,7 +5776,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B44">
         <v>0.44</v>
@@ -5783,7 +5787,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B45">
         <v>1.47</v>
@@ -5794,7 +5798,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B46">
         <v>2.0099999999999998</v>
@@ -5805,7 +5809,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B47">
         <v>0.63800000000000001</v>
@@ -5816,7 +5820,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B48">
         <v>1.94</v>
@@ -5827,7 +5831,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B49">
         <v>0.23799999999999999</v>
@@ -5838,7 +5842,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B50">
         <v>1.66</v>
@@ -5849,7 +5853,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B51">
         <v>0.70199999999999996</v>
@@ -5860,7 +5864,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B52">
         <v>0.67800000000000005</v>
@@ -5871,7 +5875,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B53">
         <v>0.76800000000000002</v>
@@ -5882,7 +5886,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B54">
         <v>1.56</v>
@@ -5893,7 +5897,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B55">
         <v>3.23</v>
@@ -5904,7 +5908,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B56">
         <v>1.4</v>
@@ -5915,7 +5919,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B57">
         <v>0.79800000000000004</v>
@@ -5926,7 +5930,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B58">
         <v>0.71199999999999997</v>
@@ -5937,7 +5941,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B59">
         <v>0.49099999999999999</v>
@@ -5948,7 +5952,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B60">
         <v>2.72</v>
@@ -5959,7 +5963,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B61">
         <v>0.39400000000000002</v>
@@ -5970,7 +5974,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B62">
         <v>0.40100000000000002</v>
@@ -5981,7 +5985,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B63">
         <v>0.6</v>
@@ -5992,7 +5996,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B64">
         <v>0.70499999999999996</v>
@@ -6003,7 +6007,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B65">
         <v>1.08</v>
@@ -6014,7 +6018,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B66">
         <v>0.59</v>
@@ -6025,7 +6029,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B67">
         <v>1.1200000000000001</v>
@@ -6036,7 +6040,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B68">
         <v>2.4</v>
@@ -6047,7 +6051,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B69">
         <v>0.93600000000000005</v>
@@ -6058,7 +6062,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B70">
         <v>0.49199999999999999</v>
@@ -6069,7 +6073,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B71">
         <v>0.57199999999999995</v>
@@ -6080,7 +6084,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B72">
         <v>0.48099999999999998</v>
@@ -6091,7 +6095,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B73">
         <v>1.23</v>
@@ -6102,7 +6106,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B74">
         <v>0.97</v>
@@ -6113,7 +6117,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B75">
         <v>0.44700000000000001</v>
@@ -6124,7 +6128,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B76">
         <v>0.505</v>
@@ -6135,7 +6139,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B77">
         <v>0.41899999999999998</v>
@@ -6146,7 +6150,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B78">
         <v>0.42199999999999999</v>
@@ -6157,7 +6161,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B79">
         <v>0.42499999999999999</v>
@@ -6168,7 +6172,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B80">
         <v>0.51400000000000001</v>
@@ -6179,7 +6183,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B81">
         <v>0.45900000000000002</v>
@@ -6190,7 +6194,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B82">
         <v>0.93700000000000006</v>
@@ -6201,7 +6205,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B83">
         <v>0.47899999999999998</v>
@@ -6212,7 +6216,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B84">
         <v>0.52900000000000003</v>
@@ -6223,7 +6227,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B85">
         <v>0.71599999999999997</v>
@@ -6234,7 +6238,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B86">
         <v>0.78300000000000003</v>
@@ -6245,7 +6249,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B87">
         <v>0.48699999999999999</v>
@@ -6256,7 +6260,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B88">
         <v>0.65600000000000003</v>
@@ -6267,7 +6271,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B89">
         <v>0.51600000000000001</v>
@@ -6278,7 +6282,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B90">
         <v>0.64700000000000002</v>
@@ -6289,7 +6293,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B91">
         <v>0.35499999999999998</v>
@@ -6300,7 +6304,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B92">
         <v>0.95799999999999996</v>
@@ -6311,7 +6315,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B93">
         <v>0.312</v>
@@ -6322,7 +6326,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B94">
         <v>1.5</v>
@@ -6333,7 +6337,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B95">
         <v>0.66200000000000003</v>
@@ -6344,7 +6348,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B96">
         <v>0.752</v>
@@ -6355,7 +6359,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B97">
         <v>0.629</v>
@@ -6366,7 +6370,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B98">
         <v>0.44</v>
@@ -6377,7 +6381,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B99">
         <v>0.70899999999999996</v>
@@ -6388,7 +6392,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B100">
         <v>0.39</v>
@@ -6399,7 +6403,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B101">
         <v>0.93600000000000005</v>
@@ -6410,7 +6414,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B102">
         <v>1.65</v>
@@ -6421,7 +6425,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B103">
         <v>1.25</v>
@@ -6432,7 +6436,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B104">
         <v>0.32800000000000001</v>
@@ -6443,7 +6447,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B105">
         <v>0.49399999999999999</v>
@@ -6454,7 +6458,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B106">
         <v>0.80400000000000005</v>
@@ -6465,7 +6469,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B107">
         <v>0.495</v>
@@ -6476,7 +6480,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B108">
         <v>0.33800000000000002</v>
@@ -6487,7 +6491,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B109">
         <v>0.70199999999999996</v>
@@ -6498,7 +6502,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B110">
         <v>1.36</v>
@@ -6509,7 +6513,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B111">
         <v>0.44700000000000001</v>
@@ -6520,7 +6524,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B112">
         <v>0.64100000000000001</v>
@@ -6531,7 +6535,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B113">
         <v>0.12</v>
@@ -6542,7 +6546,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B114">
         <v>1.2</v>
@@ -6553,7 +6557,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B115">
         <v>0.371</v>
@@ -6564,7 +6568,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B116">
         <v>0.88800000000000001</v>
@@ -6575,7 +6579,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B117">
         <v>0.28199999999999997</v>
@@ -6586,7 +6590,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B118">
         <v>0.121</v>
@@ -6597,7 +6601,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B119">
         <v>0.33800000000000002</v>
@@ -6608,7 +6612,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B120">
         <v>0.95499999999999996</v>
@@ -6619,7 +6623,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B121">
         <v>0.64400000000000002</v>
@@ -6630,7 +6634,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B122">
         <v>0.48299999999999998</v>
@@ -6641,7 +6645,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B123">
         <v>1.01</v>
@@ -6652,7 +6656,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B124">
         <v>1.35</v>
@@ -6663,7 +6667,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B125">
         <v>0.93799999999999994</v>
@@ -6674,7 +6678,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B126">
         <v>0.51500000000000001</v>
@@ -6685,7 +6689,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B127">
         <v>0.75600000000000001</v>
@@ -6696,7 +6700,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B128">
         <v>1.62</v>
@@ -6707,7 +6711,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B129">
         <v>1.0900000000000001</v>
@@ -6718,7 +6722,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B130">
         <v>0.46300000000000002</v>
@@ -6729,7 +6733,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B131">
         <v>0.53500000000000003</v>
@@ -6740,7 +6744,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B132">
         <v>0.75</v>
@@ -6751,7 +6755,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B133">
         <v>0.746</v>
@@ -6762,7 +6766,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B134">
         <v>0.152</v>
@@ -6773,7 +6777,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B135">
         <v>0.87</v>
@@ -6784,7 +6788,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B136">
         <v>1.26</v>
@@ -6795,7 +6799,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B137">
         <v>0.92400000000000004</v>
@@ -6806,7 +6810,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B138">
         <v>0.7</v>
@@ -6817,7 +6821,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B139">
         <v>0.85199999999999998</v>
@@ -6828,7 +6832,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B140">
         <v>0.86299999999999999</v>
@@ -6839,7 +6843,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B141">
         <v>0.84899999999999998</v>
@@ -6850,7 +6854,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -6861,7 +6865,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B143">
         <v>0.82199999999999995</v>
@@ -6872,7 +6876,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B144">
         <v>0.55800000000000005</v>
@@ -6883,7 +6887,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B145">
         <v>0.47099999999999997</v>
@@ -6894,7 +6898,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B146">
         <v>0.67300000000000004</v>
@@ -6905,7 +6909,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B147">
         <v>0.55200000000000005</v>
@@ -6923,7 +6927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
@@ -6941,25 +6945,25 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6967,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D2" s="4">
         <v>7.97</v>
@@ -6981,7 +6985,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D3" s="4">
         <v>7.65</v>
@@ -6995,7 +6999,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D4" s="4">
         <v>8.2899999999999991</v>
@@ -7010,7 +7014,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D5" s="4">
         <v>8.1199999999999992</v>
@@ -7024,7 +7028,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D6" s="4">
         <v>8.52</v>
@@ -7039,7 +7043,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D7" s="4">
         <v>8.23</v>
@@ -7053,7 +7057,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D8" s="4">
         <v>8.61</v>
@@ -7068,7 +7072,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D9" s="4">
         <v>7.93</v>
@@ -7082,7 +7086,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D10" s="4">
         <v>8.31</v>
@@ -7097,7 +7101,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D11" s="4">
         <v>8.2100000000000009</v>
@@ -7111,7 +7115,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D12" s="4">
         <v>7.18</v>
@@ -7125,7 +7129,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D13" s="4">
         <v>7.48</v>
@@ -7139,7 +7143,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D14" s="4">
         <v>7.7</v>
@@ -7153,7 +7157,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D15" s="4">
         <v>8.86</v>
@@ -7167,7 +7171,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D16" s="4">
         <v>7.24</v>
@@ -7182,7 +7186,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D17" s="4">
         <v>7.79</v>
@@ -7196,7 +7200,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D18" s="4">
         <v>8.2799999999999994</v>
@@ -7210,7 +7214,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D19" s="4">
         <v>7.74</v>
@@ -7224,7 +7228,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D20" s="4">
         <v>8</v>
@@ -7238,7 +7242,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D21" s="4">
         <v>7.48</v>
@@ -7252,7 +7256,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D22" s="4">
         <v>7.92</v>
@@ -7266,7 +7270,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D23" s="4">
         <v>7.58</v>
@@ -7280,7 +7284,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D24" s="4">
         <v>7.61</v>
@@ -7294,7 +7298,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D25" s="4">
         <v>8.34</v>
@@ -7308,7 +7312,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D26" s="4">
         <v>7.76</v>
@@ -7322,7 +7326,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D27" s="4">
         <v>7.61</v>
@@ -7336,7 +7340,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D28" s="4">
         <v>8.26</v>
@@ -7350,7 +7354,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D29" s="4">
         <v>8.49</v>
@@ -7364,7 +7368,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D30" s="4">
         <v>8.09</v>
@@ -7378,7 +7382,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D31" s="4">
         <v>8.8699999999999992</v>
@@ -7392,7 +7396,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D32" s="4">
         <v>0.47099999999999997</v>
@@ -7406,7 +7410,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D33" s="4">
         <v>0.42699999999999999</v>
@@ -7420,7 +7424,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D34" s="4">
         <v>0.42199999999999999</v>
@@ -7434,7 +7438,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D35" s="4">
         <v>0.42699999999999999</v>
@@ -7448,7 +7452,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D36" s="4">
         <v>0.435</v>
@@ -7462,7 +7466,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D37" s="4">
         <v>0.42299999999999999</v>
@@ -7476,7 +7480,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D38" s="4">
         <v>0.44600000000000001</v>
@@ -7490,7 +7494,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D39" s="4">
         <v>0.39100000000000001</v>
@@ -7504,7 +7508,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D40" s="4">
         <v>0.46400000000000002</v>
@@ -7518,7 +7522,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D41" s="4">
         <v>0.41899999999999998</v>
@@ -7532,7 +7536,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D42" s="4">
         <v>0.44800000000000001</v>
@@ -7546,7 +7550,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D43" s="4">
         <v>0.44</v>
@@ -7560,7 +7564,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D44" s="4">
         <v>0.436</v>
@@ -7574,7 +7578,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D45" s="4">
         <v>0.40200000000000002</v>
@@ -7588,7 +7592,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D46" s="4">
         <v>0.434</v>
@@ -7602,7 +7606,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D47" s="4">
         <v>0.435</v>
@@ -7616,7 +7620,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D48" s="4">
         <v>0.41699999999999998</v>
@@ -7630,7 +7634,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D49" s="4">
         <v>0.438</v>
@@ -7644,7 +7648,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D50" s="4">
         <v>0.45900000000000002</v>
@@ -7658,7 +7662,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D51" s="4">
         <v>0.437</v>
@@ -7672,7 +7676,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D52" s="4">
         <v>0.41099999999999998</v>
@@ -7686,7 +7690,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D53" s="4">
         <v>0.38100000000000001</v>
@@ -7700,7 +7704,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D54" s="4">
         <v>0.36699999999999999</v>
@@ -7714,7 +7718,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D55" s="4">
         <v>0.40500000000000003</v>
@@ -7728,7 +7732,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D56" s="4">
         <v>0.35</v>
@@ -7742,7 +7746,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D57" s="4">
         <v>0.40600000000000003</v>
@@ -7756,7 +7760,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D58" s="4">
         <v>0.41399999999999998</v>
@@ -7770,7 +7774,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D59" s="4">
         <v>0.38800000000000001</v>
@@ -7784,7 +7788,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D60" s="4">
         <v>0.435</v>
@@ -7798,7 +7802,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D61" s="4">
         <v>0.39300000000000002</v>
@@ -7817,7 +7821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -7830,30 +7834,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C2" s="2">
         <v>0.09</v>
@@ -7870,10 +7874,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C3" s="2">
         <v>2.71</v>
@@ -7890,10 +7894,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C4" s="2">
         <v>5.91</v>
@@ -7910,10 +7914,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C5" s="2">
         <v>30.29</v>
@@ -7930,10 +7934,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C6" s="2">
         <v>122.97</v>
@@ -7950,10 +7954,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C7" s="2">
         <v>569.23</v>
@@ -7970,10 +7974,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C8" s="2">
         <v>2913.8</v>
@@ -7990,10 +7994,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -8010,10 +8014,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C10" s="2">
         <v>5.74</v>
@@ -8030,10 +8034,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C11" s="2">
         <v>32.07</v>
@@ -8050,10 +8054,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C12" s="2">
         <v>194.46</v>
@@ -8070,10 +8074,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B13" t="s">
         <v>472</v>
-      </c>
-      <c r="B13" t="s">
-        <v>475</v>
       </c>
       <c r="C13" s="2">
         <v>559.52</v>
@@ -8090,10 +8094,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B14" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C14" s="2">
         <v>1293.3499999999999</v>
